--- a/template/Template Gruppi Import 2.0.xlsx
+++ b/template/Template Gruppi Import 2.0.xlsx
@@ -21,7 +21,7 @@
     <t># Template per Import Gruppi</t>
   </si>
   <si>
-    <t>Versione: 1.0</t>
+    <t>Versione: 2.0</t>
   </si>
   <si>
     <t>N.B.: Effettuare una copia del file e lavorare sulla copia</t>
